--- a/dados/06_finops_executivo.xlsx
+++ b/dados/06_finops_executivo.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4b755341190342fa/projetos/finops-automatic/dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_9E8ADED997D9AECF8A160B47C383E26F60D44E31" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5F61DE3-5756-4923-AE1A-459C8EABFB8F}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_9E8ADED997D9AECF8A160B47C383E26F60D44E31" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63DD35C3-1281-4C45-8CF4-6801C7B55B32}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Finops_Executivo" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -228,9 +228,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -249,7 +247,51 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -260,6 +302,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{18C448F6-EA4F-448D-82B5-044E2DFC94F6}" name="Tabela1" displayName="Tabela1" ref="A1:D16" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+  <autoFilter ref="A1:D16" xr:uid="{18C448F6-EA4F-448D-82B5-044E2DFC94F6}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{FE236EBC-B5DF-410B-8AC3-E92B604E9F89}" name="Categoria"/>
+    <tableColumn id="2" xr3:uid="{1F774CD4-2625-47C8-ACBB-4EE177E17200}" name="Domínio/Tema"/>
+    <tableColumn id="3" xr3:uid="{F6FF6890-1A9B-4348-8B33-884442E60F2A}" name="Descrição do Item Avaliado"/>
+    <tableColumn id="4" xr3:uid="{203EE529-674B-44CB-9A89-4FA40EF6774F}" name="Resposta/Avaliação"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -552,7 +607,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -789,5 +844,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>